--- a/results/KNN/125Hz_3classes/res_hyperopt.xlsx
+++ b/results/KNN/125Hz_3classes/res_hyperopt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>acc_train</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>acc_test</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>hyperparameters</t>
         </is>
@@ -460,11 +465,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 76, 'n_neighbors': 41, 'p': 1}</t>
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 66, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -478,11 +486,14 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 81, 'n_neighbors': 1, 'p': 1}</t>
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 85, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -496,11 +507,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 26, 'n_neighbors': 61, 'p': 2}</t>
+        <v>0.77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 52, 'n_neighbors': 9, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -514,11 +528,14 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 66, 'n_neighbors': 23, 'p': 2}</t>
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 89, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -532,11 +549,14 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 57, 'n_neighbors': 36, 'p': 1}</t>
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 7, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -550,11 +570,14 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.58</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 28, 'n_neighbors': 2, 'p': 1}</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 70, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -568,11 +591,14 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 48, 'n_neighbors': 55, 'p': 1}</t>
+        <v>0.76</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 30, 'n_neighbors': 13, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -586,11 +612,14 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 52, 'n_neighbors': 86, 'p': 1}</t>
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 98, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -604,11 +633,14 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 58, 'n_neighbors': 71, 'p': 2}</t>
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 49, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -622,11 +654,14 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.48</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 72, 'n_neighbors': 37, 'p': 3}</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 94, 'n_neighbors': 13, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -640,11 +675,14 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 34, 'n_neighbors': 87, 'p': 1}</t>
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 40, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -658,11 +696,14 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 37, 'n_neighbors': 7, 'p': 1}</t>
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 30, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -676,11 +717,14 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 28, 'n_neighbors': 79, 'p': 3}</t>
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 70, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -694,11 +738,14 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 87, 'n_neighbors': 59, 'p': 3}</t>
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 29, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -712,11 +759,14 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>{'leaf_size': 56, 'n_neighbors': 39, 'p': 1}</t>
+        <v>0.84</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{'leaf_size': 23, 'n_neighbors': 2, 'p': 2}</t>
         </is>
       </c>
     </row>

--- a/results/KNN/125Hz_3classes/res_hyperopt.xlsx
+++ b/results/KNN/125Hz_3classes/res_hyperopt.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'leaf_size': 84, 'n_neighbors': 1, 'p': 2}</t>
+          <t>{'leaf_size': 39, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'leaf_size': 35, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 89, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'leaf_size': 37, 'n_neighbors': 7, 'p': 1}</t>
+          <t>{'leaf_size': 84, 'n_neighbors': 7, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'leaf_size': 65, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 55, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'leaf_size': 81, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 77, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'leaf_size': 17, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 60, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'leaf_size': 98, 'n_neighbors': 13, 'p': 1}</t>
+          <t>{'leaf_size': 6, 'n_neighbors': 13, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'leaf_size': 32, 'n_neighbors': 1, 'p': 2}</t>
+          <t>{'leaf_size': 87, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'leaf_size': 7, 'n_neighbors': 1, 'p': 4}</t>
+          <t>{'leaf_size': 85, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'leaf_size': 17, 'n_neighbors': 13, 'p': 1}</t>
+          <t>{'leaf_size': 82, 'n_neighbors': 13, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'leaf_size': 74, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 26, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'leaf_size': 27, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 67, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -717,14 +717,14 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'leaf_size': 86, 'n_neighbors': 51, 'p': 2}</t>
+          <t>{'leaf_size': 41, 'n_neighbors': 1, 'p': 3}</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'leaf_size': 37, 'n_neighbors': 1, 'p': 2}</t>
+          <t>{'leaf_size': 31, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'leaf_size': 59, 'n_neighbors': 2, 'p': 2}</t>
+          <t>{'leaf_size': 99, 'n_neighbors': 2, 'p': 2}</t>
         </is>
       </c>
     </row>

--- a/results/KNN/125Hz_3classes/res_hyperopt.xlsx
+++ b/results/KNN/125Hz_3classes/res_hyperopt.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'leaf_size': 39, 'n_neighbors': 1, 'p': 4}</t>
+          <t>{'leaf_size': 79, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'leaf_size': 89, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 53, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'leaf_size': 84, 'n_neighbors': 7, 'p': 1}</t>
+          <t>{'leaf_size': 7, 'n_neighbors': 7, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'leaf_size': 55, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 44, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'leaf_size': 77, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 50, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'leaf_size': 60, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 51, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'leaf_size': 6, 'n_neighbors': 13, 'p': 1}</t>
+          <t>{'leaf_size': 68, 'n_neighbors': 13, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'leaf_size': 87, 'n_neighbors': 1, 'p': 2}</t>
+          <t>{'leaf_size': 50, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'leaf_size': 85, 'n_neighbors': 1, 'p': 4}</t>
+          <t>{'leaf_size': 22, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'leaf_size': 82, 'n_neighbors': 13, 'p': 1}</t>
+          <t>{'leaf_size': 78, 'n_neighbors': 13, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'leaf_size': 26, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 92, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'leaf_size': 67, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 63, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'leaf_size': 41, 'n_neighbors': 1, 'p': 3}</t>
+          <t>{'leaf_size': 39, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'leaf_size': 31, 'n_neighbors': 1, 'p': 2}</t>
+          <t>{'leaf_size': 36, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'leaf_size': 99, 'n_neighbors': 2, 'p': 2}</t>
+          <t>{'leaf_size': 10, 'n_neighbors': 2, 'p': 2}</t>
         </is>
       </c>
     </row>

--- a/results/KNN/125Hz_3classes/res_hyperopt.xlsx
+++ b/results/KNN/125Hz_3classes/res_hyperopt.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>load</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'leaf_size': 79, 'n_neighbors': 1, 'p': 4}</t>
+          <t>{'leaf_size': 30, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'leaf_size': 53, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 38, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -507,14 +507,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="D4" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'leaf_size': 7, 'n_neighbors': 7, 'p': 1}</t>
+          <t>{'leaf_size': 62, 'n_neighbors': 9, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'leaf_size': 44, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 45, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'leaf_size': 50, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 20, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'leaf_size': 51, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 96, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'leaf_size': 68, 'n_neighbors': 13, 'p': 1}</t>
+          <t>{'leaf_size': 99, 'n_neighbors': 13, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'leaf_size': 50, 'n_neighbors': 1, 'p': 2}</t>
+          <t>{'leaf_size': 87, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'leaf_size': 22, 'n_neighbors': 1, 'p': 4}</t>
+          <t>{'leaf_size': 50, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'leaf_size': 78, 'n_neighbors': 13, 'p': 1}</t>
+          <t>{'leaf_size': 55, 'n_neighbors': 13, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'leaf_size': 92, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 76, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'leaf_size': 63, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 28, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'leaf_size': 39, 'n_neighbors': 1, 'p': 4}</t>
+          <t>{'leaf_size': 31, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'leaf_size': 36, 'n_neighbors': 1, 'p': 2}</t>
+          <t>{'leaf_size': 47, 'n_neighbors': 1, 'p': 2}</t>
         </is>
       </c>
     </row>
@@ -759,14 +759,14 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.84</v>
+        <v>0.66</v>
       </c>
       <c r="D16" t="n">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'leaf_size': 10, 'n_neighbors': 2, 'p': 2}</t>
+          <t>{'leaf_size': 32, 'n_neighbors': 36, 'p': 1}</t>
         </is>
       </c>
     </row>
